--- a/FlightDataAnalysis/Eigenvalues.xlsx
+++ b/FlightDataAnalysis/Eigenvalues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\FlightDynamicsSVV\FlightDataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BF57F6-A34C-468A-8AE7-5B666529A64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F885CD-3870-417D-85A5-8687CA6503CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="2985" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19590" yWindow="5640" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Flight data</t>
   </si>
@@ -62,26 +62,35 @@
     <t>imaginary</t>
   </si>
   <si>
-    <t>real off %</t>
-  </si>
-  <si>
-    <t>imaginary off%</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
-    <t>difference in own column</t>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>halftime</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,24 +118,21 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -136,6 +142,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,23 +166,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5BA8819-4482-42F7-9DD2-63561BB7C700}" name="Table1" displayName="Table1" ref="A2:G8" totalsRowShown="0">
-  <autoFilter ref="A2:G8" xr:uid="{ECDCA75F-B462-492C-8E20-C2001A1330E8}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5BA8819-4482-42F7-9DD2-63561BB7C700}" name="Table1" displayName="Table1" ref="A2:H8" totalsRowShown="0">
+  <autoFilter ref="A2:H8" xr:uid="{ECDCA75F-B462-492C-8E20-C2001A1330E8}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{12EC68D1-0E18-4EB7-AD39-A25BB9BAEB02}" name="Graph"/>
-    <tableColumn id="2" xr3:uid="{48610438-8629-4955-8C5F-30211FE85251}" name="eigenvalue" dataDxfId="4">
-      <calculatedColumnFormula>ROUND(Table1[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table1[[#This Row],[imaginary]],4)&amp;"i"</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{48610438-8629-4955-8C5F-30211FE85251}" name="eigenvalue" dataDxfId="6">
+      <calculatedColumnFormula>ROUND(Table1[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table1[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[imaginary]])))))&amp;" j"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B2B33483-A50D-432B-9BB7-6B42D3EC130C}" name="real"/>
     <tableColumn id="3" xr3:uid="{5A705D55-5495-4C03-81BF-CAF71DF2E418}" name="imaginary"/>
-    <tableColumn id="4" xr3:uid="{3A3A0476-E077-44C8-8BF5-ED93A85CEF1C}" name="real off %" dataDxfId="3">
-      <calculatedColumnFormula>(Table1[[#This Row],[real]]-C12)/C12</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{3A3A0476-E077-44C8-8BF5-ED93A85CEF1C}" name="Period" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{07DB665B-B7CD-4228-B14A-5F9BDFDB42F9}" name="halftime" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{41A82E93-0210-4450-8533-D520C8D858C0}" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>ROUND(Table1[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[Period]])))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{07DB665B-B7CD-4228-B14A-5F9BDFDB42F9}" name="imaginary off%" dataDxfId="2">
-      <calculatedColumnFormula>(Table1[[#This Row],[imaginary]]-D12)/D12</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{1623BA71-A95F-4E6D-BEA8-F186B30214DA}" name="Column1" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[real]]/C2</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{CCACA8E1-1C62-4340-A06F-8D673F336F85}" name="Column2" dataDxfId="1">
+      <calculatedColumnFormula>ROUND(Table1[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[halftime]])))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -175,17 +189,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1EE1EF1D-F9C7-4CE7-9487-5CB7D3D3FF2C}" name="Table13" displayName="Table13" ref="A11:E17" totalsRowShown="0">
-  <autoFilter ref="A11:E17" xr:uid="{9F66E4DC-96A2-4C5F-8ECF-D2ED63A5333A}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1EE1EF1D-F9C7-4CE7-9487-5CB7D3D3FF2C}" name="Table13" displayName="Table13" ref="A11:H17" totalsRowShown="0">
+  <autoFilter ref="A11:H17" xr:uid="{9F66E4DC-96A2-4C5F-8ECF-D2ED63A5333A}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6246D3A4-C755-4D87-A3A8-B465C32115BD}" name="Graph"/>
     <tableColumn id="2" xr3:uid="{CEF68AD3-6326-4931-91F5-06ACB5CC15CE}" name="eigenvalue" dataDxfId="5">
-      <calculatedColumnFormula>ROUND(Table13[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table13[[#This Row],[imaginary]],4)&amp;"i"</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND(Table13[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table13[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[imaginary]])))))&amp;" j"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0A5F0D52-41AB-4DE5-8281-35A7B838FC5E}" name="real"/>
     <tableColumn id="4" xr3:uid="{28CF6241-4E6C-448F-AD8A-C29D221BE41B}" name="imaginary"/>
-    <tableColumn id="5" xr3:uid="{EB4E6C99-B0B7-48C4-8141-8DC90171C5B4}" name="difference in own column" dataDxfId="1">
-      <calculatedColumnFormula>Table13[[#This Row],[real]]/C11</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{EB4E6C99-B0B7-48C4-8141-8DC90171C5B4}" name="Period" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A6B1EC49-81D7-4C02-9B7E-FB2B31A992E4}" name="halftime"/>
+    <tableColumn id="7" xr3:uid="{A0333EA1-7FB1-4556-B5FE-3630E4571019}" name="Column1" dataDxfId="3">
+      <calculatedColumnFormula>ROUND(Table13[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[Period]])))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{17FC42F8-8072-4586-83F5-0425A2077FEE}" name="Column2">
+      <calculatedColumnFormula>ROUND(Table13[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[halftime]])))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -455,25 +474,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -487,175 +508,199 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f>ROUND(Table1[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table1[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0001±0.0031i</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-8.5307000000000002E-5</v>
+        <f>ROUND(Table1[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table1[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.00008531 ± 0.003063 j</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-8.5307103557775597E-5</v>
       </c>
       <c r="D3">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="E3" s="3">
-        <f>(Table1[[#This Row],[real]]-C12)/C12</f>
-        <v>-0.25306890815165051</v>
-      </c>
-      <c r="F3" s="3">
-        <f>(Table1[[#This Row],[imaginary]]-D12)/D12</f>
-        <v>-8.8235294117647037E-2</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0629651605569999E-3</v>
+      </c>
+      <c r="E3">
+        <v>43.7485</v>
+      </c>
+      <c r="F3">
+        <v>173.2868</v>
+      </c>
+      <c r="G3" s="3">
+        <f>ROUND(Table1[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[Period]])))))</f>
+        <v>43.75</v>
+      </c>
+      <c r="H3" s="3">
+        <f>ROUND(Table1[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[halftime]])))))</f>
+        <v>173.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>ROUND(Table1[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table1[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0001±0.0031i</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-8.5307000000000002E-5</v>
+        <f>ROUND(Table1[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table1[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.00008531 ± 0.003075 j</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-8.5307103557775597E-5</v>
       </c>
       <c r="D4">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="E4" s="3">
-        <f>(Table1[[#This Row],[real]]-C13)/C13</f>
-        <v>-0.25306890815165051</v>
-      </c>
-      <c r="F4" s="3">
-        <f>(Table1[[#This Row],[imaginary]]-D13)/D13</f>
-        <v>-8.8235294117647037E-2</v>
+        <v>3.0751506751110001E-3</v>
+      </c>
+      <c r="E4">
+        <v>43.575099999999999</v>
+      </c>
+      <c r="F4">
+        <v>173.2868</v>
       </c>
       <c r="G4" s="3">
-        <f>Table1[[#This Row],[real]]/C3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>ROUND(Table1[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[Period]])))))</f>
+        <v>43.58</v>
+      </c>
+      <c r="H4" s="3">
+        <f>ROUND(Table1[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[halftime]])))))</f>
+        <v>173.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>ROUND(Table1[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table1[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0172±0.1529i</v>
+        <f>ROUND(Table1[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table1[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.03448 ± 0.3059 j</v>
       </c>
       <c r="C5">
-        <v>-1.72E-2</v>
+        <v>-3.4479089511391003E-2</v>
       </c>
       <c r="D5">
-        <v>0.15290000000000001</v>
-      </c>
-      <c r="E5" s="3">
-        <f>(Table1[[#This Row],[real]]-C14)/C14</f>
-        <v>5.8479532163742331E-3</v>
-      </c>
-      <c r="F5" s="3">
-        <f>(Table1[[#This Row],[imaginary]]-D14)/D14</f>
-        <v>-0.1448545861297538</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.30586658994527699</v>
+      </c>
+      <c r="E5">
+        <v>3.3889</v>
+      </c>
+      <c r="F5">
+        <v>3.3165</v>
+      </c>
+      <c r="G5" s="3">
+        <f>ROUND(Table1[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[Period]])))))</f>
+        <v>3.3889999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <f>ROUND(Table1[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[halftime]])))))</f>
+        <v>3.3170000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="str">
-        <f>ROUND(Table1[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table1[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0154±0.1535i</v>
+        <f>ROUND(Table1[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table1[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.03085 ± 0.307 j</v>
       </c>
       <c r="C6">
-        <v>-1.54E-2</v>
+        <v>-3.0849711668087001E-2</v>
       </c>
       <c r="D6">
-        <v>0.1535</v>
-      </c>
-      <c r="E6" s="3">
-        <f>(Table1[[#This Row],[real]]-C15)/C15</f>
-        <v>-0.16304347826086951</v>
-      </c>
-      <c r="F6" s="3">
-        <f>(Table1[[#This Row],[imaginary]]-D15)/D15</f>
-        <v>-0.14816870144284131</v>
+        <v>0.30701700495213102</v>
+      </c>
+      <c r="E6">
+        <v>3.3761999999999999</v>
+      </c>
+      <c r="F6">
+        <v>3.7067000000000001</v>
       </c>
       <c r="G6" s="3">
-        <f>Table1[[#This Row],[real]]/C5</f>
-        <v>0.89534883720930236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>ROUND(Table1[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[Period]])))))</f>
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <f>ROUND(Table1[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[halftime]])))))</f>
+        <v>3.7069999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="str">
-        <f>ROUND(Table1[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table1[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0252±0.1672i</v>
+        <f>ROUND(Table1[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table1[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.05048 ± 0.3344 j</v>
       </c>
       <c r="C7">
-        <v>-2.52E-2</v>
+        <v>-5.0481346365961001E-2</v>
       </c>
       <c r="D7">
-        <v>0.16719999999999999</v>
-      </c>
-      <c r="E7" s="3">
-        <f>(Table1[[#This Row],[real]]-C16)/C16</f>
-        <v>8.1545064377682358E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <f>(Table1[[#This Row],[imaginary]]-D16)/D16</f>
-        <v>-0.12643678160919541</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.33437028649932099</v>
+      </c>
+      <c r="E7">
+        <v>3.1</v>
+      </c>
+      <c r="F7">
+        <v>2.2652000000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <f>ROUND(Table1[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[Period]])))))</f>
+        <v>3.1</v>
+      </c>
+      <c r="H7" s="3">
+        <f>ROUND(Table1[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[halftime]])))))</f>
+        <v>2.2650000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="str">
-        <f>ROUND(Table1[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table1[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0382±0.1672i</v>
+        <f>ROUND(Table1[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table1[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.07638 ± 0.3344 j</v>
       </c>
       <c r="C8">
-        <v>-3.8199999999999998E-2</v>
+        <v>-7.6381906429541999E-2</v>
       </c>
       <c r="D8">
-        <v>0.16719999999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <f>(Table1[[#This Row],[real]]-C17)/C17</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <f>(Table1[[#This Row],[imaginary]]-D17)/D17</f>
-        <v>-0.15640766902119072</v>
+        <v>0.33437028649932099</v>
+      </c>
+      <c r="E8">
+        <v>3.1</v>
+      </c>
+      <c r="F8">
+        <v>1.4971000000000001</v>
       </c>
       <c r="G8" s="3">
-        <f>Table1[[#This Row],[real]]/C7</f>
-        <v>1.5158730158730158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+        <f>ROUND(Table1[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[Period]])))))</f>
+        <v>3.1</v>
+      </c>
+      <c r="H8" s="3">
+        <f>ROUND(Table1[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table1[[#This Row],[halftime]])))))</f>
+        <v>1.4970000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -669,111 +714,190 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="str">
-        <f>ROUND(Table13[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table13[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0001±0.0034i</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-1.1421000000000001E-4</v>
+        <f>ROUND(Table13[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table13[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.0001142 ± 0.003435 j</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1.14208271518993E-4</v>
       </c>
       <c r="D12">
-        <v>3.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4347264912740001E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41.784505135387299</v>
+      </c>
+      <c r="F12" s="3">
+        <v>138.62943611198901</v>
+      </c>
+      <c r="G12">
+        <f>ROUND(Table13[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[Period]])))))</f>
+        <v>41.78</v>
+      </c>
+      <c r="H12">
+        <f>ROUND(Table13[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[halftime]])))))</f>
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="str">
-        <f>ROUND(Table13[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table13[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0001±0.0034i</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-1.1421000000000001E-4</v>
+        <f>ROUND(Table13[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table13[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.0001142 ± 0.003427 j</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1.14208271518993E-4</v>
       </c>
       <c r="D13">
-        <v>3.3999999999999998E-3</v>
+        <v>3.4269283906689998E-3</v>
       </c>
       <c r="E13" s="3">
-        <f>Table13[[#This Row],[real]]/C12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41.879600000000003</v>
+      </c>
+      <c r="F13" s="3">
+        <v>138.6294</v>
+      </c>
+      <c r="G13">
+        <f>ROUND(Table13[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[Period]])))))</f>
+        <v>41.88</v>
+      </c>
+      <c r="H13">
+        <f>ROUND(Table13[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[halftime]])))))</f>
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="str">
-        <f>ROUND(Table13[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table13[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0171±0.1788i</v>
+        <f>ROUND(Table13[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table13[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.0341 ± 0.3576 j</v>
       </c>
       <c r="C14">
-        <v>-1.7100000000000001E-2</v>
+        <v>-3.4101160675849E-2</v>
       </c>
       <c r="D14">
-        <v>0.17879999999999999</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.35757193061138298</v>
+      </c>
+      <c r="E14">
+        <v>3.1048</v>
+      </c>
+      <c r="F14">
+        <v>3.5914000000000001</v>
+      </c>
+      <c r="G14">
+        <f>ROUND(Table13[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[Period]])))))</f>
+        <v>3.105</v>
+      </c>
+      <c r="H14">
+        <f>ROUND(Table13[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[halftime]])))))</f>
+        <v>3.5910000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="str">
-        <f>ROUND(Table13[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table13[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0184±0.1802i</v>
+        <f>ROUND(Table13[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table13[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.03675 ± 0.3603 j</v>
       </c>
       <c r="C15">
-        <v>-1.84E-2</v>
+        <v>-3.6751509951174002E-2</v>
       </c>
       <c r="D15">
-        <v>0.1802</v>
-      </c>
-      <c r="E15" s="3">
-        <f>Table13[[#This Row],[real]]/C14</f>
-        <v>1.0760233918128654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.36033523764859199</v>
+      </c>
+      <c r="E15">
+        <v>3.081</v>
+      </c>
+      <c r="F15">
+        <v>3.3323999999999998</v>
+      </c>
+      <c r="G15">
+        <f>ROUND(Table13[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[Period]])))))</f>
+        <v>3.081</v>
+      </c>
+      <c r="H15">
+        <f>ROUND(Table13[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[halftime]])))))</f>
+        <v>3.3319999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="str">
-        <f>ROUND(Table13[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table13[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0233±0.1914i</v>
+        <f>ROUND(Table13[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table13[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.04665 ± 0.3828 j</v>
       </c>
       <c r="C16">
-        <v>-2.3300000000000001E-2</v>
+        <v>-4.6646147245720998E-2</v>
       </c>
       <c r="D16">
-        <v>0.19139999999999999</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.38281920978427397</v>
+      </c>
+      <c r="E16">
+        <v>2.9</v>
+      </c>
+      <c r="F16">
+        <v>2.6255999999999999</v>
+      </c>
+      <c r="G16">
+        <f>ROUND(Table13[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[Period]])))))</f>
+        <v>2.9</v>
+      </c>
+      <c r="H16">
+        <f>ROUND(Table13[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[halftime]])))))</f>
+        <v>2.6259999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="str">
-        <f>ROUND(Table13[[#This Row],[real]],4)&amp;"±"&amp;ROUND(Table13[[#This Row],[imaginary]],4)&amp;"i"</f>
-        <v>-0.0382±0.1982i</v>
+        <f>ROUND(Table13[[#This Row],[real]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[real]])))))&amp;" ± "&amp;ROUND(Table13[[#This Row],[imaginary]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[imaginary]])))))&amp;" j"</f>
+        <v>-0.07633 ± 0.3965 j</v>
       </c>
       <c r="C17">
-        <v>-3.8199999999999998E-2</v>
+        <v>-7.6330059129361999E-2</v>
       </c>
       <c r="D17">
-        <v>0.19819999999999999</v>
-      </c>
-      <c r="E17" s="3">
-        <f>Table13[[#This Row],[real]]/C16</f>
-        <v>1.6394849785407724</v>
+        <v>0.39649132441941298</v>
+      </c>
+      <c r="E17">
+        <v>2.8</v>
+      </c>
+      <c r="F17">
+        <v>1.6045</v>
+      </c>
+      <c r="G17">
+        <f>ROUND(Table13[[#This Row],[Period]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[Period]])))))</f>
+        <v>2.8</v>
+      </c>
+      <c r="H17">
+        <f>ROUND(Table13[[#This Row],[halftime]],4-(1+INT(LOG10(ABS(Table13[[#This Row],[halftime]])))))</f>
+        <v>1.605</v>
       </c>
     </row>
   </sheetData>
@@ -781,6 +905,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="2">
